--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW30.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Gamma2F-HW30.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="Gamma2F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1043,7 +1043,7 @@
         <v>0.9827620841380532</v>
       </c>
       <c r="G15">
-        <v>1.027399527419901</v>
+        <v>1.027399527419902</v>
       </c>
       <c r="H15">
         <v>0.9524880497661289</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>0.9954354095064556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.037917103928846</v>
+      </c>
+      <c r="D16">
+        <v>0.8587694790858619</v>
+      </c>
+      <c r="E16">
+        <v>1.021670918993874</v>
+      </c>
+      <c r="F16">
+        <v>1.037917103928846</v>
+      </c>
+      <c r="G16">
+        <v>0.9240360028564959</v>
+      </c>
+      <c r="H16">
+        <v>1.067212645566715</v>
+      </c>
+      <c r="I16">
+        <v>1.02939796776767</v>
+      </c>
+      <c r="J16">
+        <v>0.8587694790858619</v>
+      </c>
+      <c r="K16">
+        <v>0.9402201990398678</v>
+      </c>
+      <c r="L16">
+        <v>0.989068651484357</v>
+      </c>
+      <c r="M16">
+        <v>0.9898340196999104</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.037917103928846</v>

--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW30.xlsx
@@ -1046,7 +1046,7 @@
         <v>0.9827620841380532</v>
       </c>
       <c r="G15">
-        <v>1.027399527419902</v>
+        <v>1.027399527419901</v>
       </c>
       <c r="H15">
         <v>0.9524880497661289</v>

--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.031239999999998</v>
+        <v>1.037917103928846</v>
       </c>
       <c r="D10">
-        <v>0.7049359999999991</v>
+        <v>0.8587694790858619</v>
       </c>
       <c r="E10">
-        <v>1.078359999999998</v>
+        <v>1.021670918993874</v>
       </c>
       <c r="F10">
-        <v>1.031239999999998</v>
+        <v>1.037917103928846</v>
       </c>
       <c r="G10">
-        <v>0.8184920000000008</v>
+        <v>0.9240360028564959</v>
       </c>
       <c r="H10">
-        <v>1.250087999999999</v>
+        <v>1.067212645566715</v>
       </c>
       <c r="I10">
-        <v>1.077528000000001</v>
+        <v>1.02939796776767</v>
       </c>
       <c r="J10">
-        <v>0.7049359999999991</v>
+        <v>0.8587694790858619</v>
       </c>
       <c r="K10">
-        <v>0.8916479999999986</v>
+        <v>0.9402201990398678</v>
       </c>
       <c r="L10">
-        <v>0.9614439999999983</v>
+        <v>0.989068651484357</v>
       </c>
       <c r="M10">
-        <v>0.9934406666666661</v>
+        <v>0.9898340196999104</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.05</v>
+        <v>1.019239884857869</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0.9367053026849645</v>
       </c>
       <c r="E11">
-        <v>1.14</v>
+        <v>1.004002733446572</v>
       </c>
       <c r="F11">
-        <v>1.05</v>
+        <v>1.019239884857869</v>
       </c>
       <c r="G11">
-        <v>0.6899999999999999</v>
+        <v>0.9631512816357318</v>
       </c>
       <c r="H11">
-        <v>1.44</v>
+        <v>1.018262426068582</v>
       </c>
       <c r="I11">
-        <v>1.14</v>
+        <v>1.009696082515353</v>
       </c>
       <c r="J11">
-        <v>0.5</v>
+        <v>0.9367053026849645</v>
       </c>
       <c r="K11">
-        <v>0.82</v>
+        <v>0.9703540180657682</v>
       </c>
       <c r="L11">
-        <v>0.9350000000000001</v>
+        <v>0.9947969514618188</v>
       </c>
       <c r="M11">
-        <v>0.9933333333333333</v>
+        <v>0.9918429518681787</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.028539515699199</v>
+        <v>1.019021352339277</v>
       </c>
       <c r="D12">
-        <v>0.7052972460032</v>
+        <v>0.9371010281650283</v>
       </c>
       <c r="E12">
-        <v>1.079629288857595</v>
+        <v>1.003986132655838</v>
       </c>
       <c r="F12">
-        <v>1.028539515699199</v>
+        <v>1.019021352339277</v>
       </c>
       <c r="G12">
-        <v>0.8185055533056017</v>
+        <v>0.9634010240387019</v>
       </c>
       <c r="H12">
-        <v>1.251056255180797</v>
+        <v>1.018176307611154</v>
       </c>
       <c r="I12">
-        <v>1.077419097497595</v>
+        <v>1.009562382671486</v>
       </c>
       <c r="J12">
-        <v>0.7052972460032</v>
+        <v>0.9371010281650283</v>
       </c>
       <c r="K12">
-        <v>0.8924632674303974</v>
+        <v>0.970543580410433</v>
       </c>
       <c r="L12">
-        <v>0.9605013915647981</v>
+        <v>0.994782466374855</v>
       </c>
       <c r="M12">
-        <v>0.9934078260906644</v>
+        <v>0.9918747045802475</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9943777333961163</v>
+        <v>1.019242616529353</v>
       </c>
       <c r="D13">
-        <v>0.9946791072496592</v>
+        <v>0.9366906139235783</v>
       </c>
       <c r="E13">
-        <v>0.9944655469068524</v>
+        <v>1.00402299576764</v>
       </c>
       <c r="F13">
-        <v>0.9943777333961163</v>
+        <v>1.019242616529353</v>
       </c>
       <c r="G13">
-        <v>0.9933498591290884</v>
+        <v>0.9632063736572437</v>
       </c>
       <c r="H13">
-        <v>0.9951301879988974</v>
+        <v>1.018238219351166</v>
       </c>
       <c r="I13">
-        <v>0.9947985013778831</v>
+        <v>1.009641718128263</v>
       </c>
       <c r="J13">
-        <v>0.9946791072496592</v>
+        <v>0.9366906139235783</v>
       </c>
       <c r="K13">
-        <v>0.9945723270782558</v>
+        <v>0.970356804845609</v>
       </c>
       <c r="L13">
-        <v>0.9944750302371861</v>
+        <v>0.9947997106874811</v>
       </c>
       <c r="M13">
-        <v>0.994466822676416</v>
+        <v>0.991840422892874</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9829477365298875</v>
+        <v>1.031239999999998</v>
       </c>
       <c r="D14">
-        <v>1.018922892440804</v>
+        <v>0.7049359999999991</v>
       </c>
       <c r="E14">
-        <v>0.9913341042082864</v>
+        <v>1.078359999999998</v>
       </c>
       <c r="F14">
-        <v>0.9829477365298875</v>
+        <v>1.031239999999998</v>
       </c>
       <c r="G14">
-        <v>1.003457330937389</v>
+        <v>0.8184920000000008</v>
       </c>
       <c r="H14">
-        <v>0.9880931686842535</v>
+        <v>1.250087999999999</v>
       </c>
       <c r="I14">
-        <v>0.9915315265135841</v>
+        <v>1.077528000000001</v>
       </c>
       <c r="J14">
-        <v>1.018922892440804</v>
+        <v>0.7049359999999991</v>
       </c>
       <c r="K14">
-        <v>1.005128498324545</v>
+        <v>0.8916479999999986</v>
       </c>
       <c r="L14">
-        <v>0.9940381174272163</v>
+        <v>0.9614439999999983</v>
       </c>
       <c r="M14">
-        <v>0.9960477932190339</v>
+        <v>0.9934406666666661</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9827620841380532</v>
+        <v>1.05</v>
       </c>
       <c r="D15">
-        <v>1.051462417451613</v>
+        <v>0.5</v>
       </c>
       <c r="E15">
-        <v>0.979854243119943</v>
+        <v>1.14</v>
       </c>
       <c r="F15">
-        <v>0.9827620841380532</v>
+        <v>1.05</v>
       </c>
       <c r="G15">
-        <v>1.027399527419901</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H15">
-        <v>0.9524880497661289</v>
+        <v>1.44</v>
       </c>
       <c r="I15">
-        <v>0.9786461351430931</v>
+        <v>1.14</v>
       </c>
       <c r="J15">
-        <v>1.051462417451613</v>
+        <v>0.5</v>
       </c>
       <c r="K15">
-        <v>1.015658330285778</v>
+        <v>0.82</v>
       </c>
       <c r="L15">
-        <v>0.9992102072119157</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="M15">
-        <v>0.9954354095064556</v>
+        <v>0.9933333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.037917103928846</v>
+        <v>1.028539515699199</v>
       </c>
       <c r="D16">
-        <v>0.8587694790858619</v>
+        <v>0.7052972460032</v>
       </c>
       <c r="E16">
-        <v>1.021670918993874</v>
+        <v>1.079629288857595</v>
       </c>
       <c r="F16">
-        <v>1.037917103928846</v>
+        <v>1.028539515699199</v>
       </c>
       <c r="G16">
-        <v>0.9240360028564959</v>
+        <v>0.8185055533056017</v>
       </c>
       <c r="H16">
-        <v>1.067212645566715</v>
+        <v>1.251056255180797</v>
       </c>
       <c r="I16">
-        <v>1.02939796776767</v>
+        <v>1.077419097497595</v>
       </c>
       <c r="J16">
-        <v>0.8587694790858619</v>
+        <v>0.7052972460032</v>
       </c>
       <c r="K16">
-        <v>0.9402201990398678</v>
+        <v>0.8924632674303974</v>
       </c>
       <c r="L16">
-        <v>0.989068651484357</v>
+        <v>0.9605013915647981</v>
       </c>
       <c r="M16">
-        <v>0.9898340196999104</v>
+        <v>0.9934078260906644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9943777333961163</v>
+      </c>
+      <c r="D17">
+        <v>0.9946791072496592</v>
+      </c>
+      <c r="E17">
+        <v>0.9944655469068524</v>
+      </c>
+      <c r="F17">
+        <v>0.9943777333961163</v>
+      </c>
+      <c r="G17">
+        <v>0.9933498591290884</v>
+      </c>
+      <c r="H17">
+        <v>0.9951301879988974</v>
+      </c>
+      <c r="I17">
+        <v>0.9947985013778831</v>
+      </c>
+      <c r="J17">
+        <v>0.9946791072496592</v>
+      </c>
+      <c r="K17">
+        <v>0.9945723270782558</v>
+      </c>
+      <c r="L17">
+        <v>0.9944750302371861</v>
+      </c>
+      <c r="M17">
+        <v>0.994466822676416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9829477365298875</v>
+      </c>
+      <c r="D18">
+        <v>1.018922892440804</v>
+      </c>
+      <c r="E18">
+        <v>0.9913341042082864</v>
+      </c>
+      <c r="F18">
+        <v>0.9829477365298875</v>
+      </c>
+      <c r="G18">
+        <v>1.003457330937389</v>
+      </c>
+      <c r="H18">
+        <v>0.9880931686842535</v>
+      </c>
+      <c r="I18">
+        <v>0.9915315265135841</v>
+      </c>
+      <c r="J18">
+        <v>1.018922892440804</v>
+      </c>
+      <c r="K18">
+        <v>1.005128498324545</v>
+      </c>
+      <c r="L18">
+        <v>0.9940381174272163</v>
+      </c>
+      <c r="M18">
+        <v>0.9960477932190339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9827620841380532</v>
+      </c>
+      <c r="D19">
+        <v>1.051462417451613</v>
+      </c>
+      <c r="E19">
+        <v>0.979854243119943</v>
+      </c>
+      <c r="F19">
+        <v>0.9827620841380532</v>
+      </c>
+      <c r="G19">
+        <v>1.027399527419902</v>
+      </c>
+      <c r="H19">
+        <v>0.9524880497661289</v>
+      </c>
+      <c r="I19">
+        <v>0.9786461351430931</v>
+      </c>
+      <c r="J19">
+        <v>1.051462417451613</v>
+      </c>
+      <c r="K19">
+        <v>1.015658330285778</v>
+      </c>
+      <c r="L19">
+        <v>0.9992102072119157</v>
+      </c>
+      <c r="M19">
+        <v>0.9954354095064556</v>
       </c>
     </row>
   </sheetData>
